--- a/gd/道具系统/道具tips产出配置.xlsx
+++ b/gd/道具系统/道具tips产出配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28155" yWindow="60" windowWidth="28545" windowHeight="12840" activeTab="5"/>
+    <workbookView xWindow="28155" yWindow="60" windowWidth="28545" windowHeight="12825"/>
   </bookViews>
   <sheets>
     <sheet name="消耗类道具" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="狗粮宠物" sheetId="5" r:id="rId5"/>
     <sheet name="道具tips产出(配置方式)" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="277">
   <si>
     <t>道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -943,6 +943,136 @@
 7=公会
 副本,商店,和公会有分支类型
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物A碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物B碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物C碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物D碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物E碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物F碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物G碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物H碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物I碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物J碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物K碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物L碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物M碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物N碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难1-4</t>
+  </si>
+  <si>
+    <t>困难1-8</t>
+  </si>
+  <si>
+    <t>困难2-4</t>
+  </si>
+  <si>
+    <t>困难2-8</t>
+  </si>
+  <si>
+    <t>困难3-4</t>
+  </si>
+  <si>
+    <t>困难3-8</t>
+  </si>
+  <si>
+    <t>困难4-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难4-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物O碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物P碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物Q碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难5-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难6-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难5-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难6-8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2042,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -2361,7 +2491,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>50003</v>
+        <v>20001</v>
       </c>
       <c r="B34" t="s">
         <v>95</v>
@@ -2378,34 +2508,280 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>50004</v>
+        <v>20002</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>260</v>
+      </c>
+      <c r="D35" t="s">
+        <v>244</v>
+      </c>
+      <c r="E35" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>50005</v>
+        <v>20003</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>261</v>
+      </c>
+      <c r="D36" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
+        <v>20004</v>
+      </c>
+      <c r="B37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" t="s">
+        <v>262</v>
+      </c>
+      <c r="D37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>20005</v>
+      </c>
+      <c r="B38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" t="s">
+        <v>263</v>
+      </c>
+      <c r="D38" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>20006</v>
+      </c>
+      <c r="B39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" t="s">
+        <v>264</v>
+      </c>
+      <c r="D39" t="s">
+        <v>244</v>
+      </c>
+      <c r="E39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>20007</v>
+      </c>
+      <c r="B40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" t="s">
+        <v>244</v>
+      </c>
+      <c r="E40" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>20008</v>
+      </c>
+      <c r="B41" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" t="s">
+        <v>259</v>
+      </c>
+      <c r="D41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>20009</v>
+      </c>
+      <c r="B42" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" t="s">
+        <v>259</v>
+      </c>
+      <c r="D42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>20010</v>
+      </c>
+      <c r="B43" t="s">
+        <v>252</v>
+      </c>
+      <c r="C43" t="s">
+        <v>266</v>
+      </c>
+      <c r="D43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>20011</v>
+      </c>
+      <c r="B44" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" t="s">
+        <v>267</v>
+      </c>
+      <c r="D44" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>20012</v>
+      </c>
+      <c r="B45" t="s">
+        <v>254</v>
+      </c>
+      <c r="C45" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>20013</v>
+      </c>
+      <c r="B46" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>20014</v>
+      </c>
+      <c r="B47" t="s">
+        <v>256</v>
+      </c>
+      <c r="C47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>20015</v>
+      </c>
+      <c r="B48" t="s">
+        <v>257</v>
+      </c>
+      <c r="C48" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>20016</v>
+      </c>
+      <c r="B49" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>20017</v>
+      </c>
+      <c r="B50" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>20018</v>
+      </c>
+      <c r="B51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>20019</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>20020</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>50004</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>50005</v>
+      </c>
+      <c r="B57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58">
         <v>50006</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B58" t="s">
         <v>98</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C58" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3937,7 +4313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
